--- a/test2.xlsx
+++ b/test2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\mytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF17F57-D773-4293-88A6-53448F3E4AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDF5AAF-F1CF-43C3-8103-9A6BE9570259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>aaaaaaaaaaaaa</t>
     <phoneticPr fontId="1"/>
@@ -371,8 +371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -382,6 +382,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:6">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="8" spans="1:6">
       <c r="E8" t="s">
         <v>1</v>

--- a/test2.xlsx
+++ b/test2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\mytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDF5AAF-F1CF-43C3-8103-9A6BE9570259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E55600-5730-4037-9A4A-2E6B06DD63D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>aaaaaaaaaaaaa</t>
     <phoneticPr fontId="1"/>
@@ -44,6 +44,10 @@
   </si>
   <si>
     <t>aa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ee</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -51,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +65,21 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -87,8 +106,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -372,7 +393,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -387,10 +408,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:6">
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="8" spans="1:6">
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6">
       <c r="F13" t="s">

--- a/test2.xlsx
+++ b/test2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\mytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E55600-5730-4037-9A4A-2E6B06DD63D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031D9E57-914C-4032-A392-53DC87388E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>aaaaaaaaaaaaa</t>
     <phoneticPr fontId="1"/>
@@ -48,6 +48,10 @@
   </si>
   <si>
     <t>ee</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xxxxxxxxxxxxxx</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -390,59 +394,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="C5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="F6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="E8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="F13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="C15" t="s">
         <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="5:5">

--- a/test2.xlsx
+++ b/test2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\mytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031D9E57-914C-4032-A392-53DC87388E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BFA0CC-A783-45D7-B516-78A199842038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>aaaaaaaaaaaaa</t>
     <phoneticPr fontId="1"/>
@@ -52,6 +52,10 @@
   </si>
   <si>
     <t>xxxxxxxxxxxxxx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cccccc</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -396,8 +400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -422,6 +426,9 @@
         <v>1</v>
       </c>
       <c r="F8" s="2"/>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="E9" s="2"/>

--- a/test2.xlsx
+++ b/test2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\mytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BFA0CC-A783-45D7-B516-78A199842038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7C3166-435E-4CB7-9DA5-DE000EDCA93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>aaaaaaaaaaaaa</t>
     <phoneticPr fontId="1"/>
@@ -56,6 +56,10 @@
   </si>
   <si>
     <t>cccccc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cccccccc</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -398,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -459,7 +463,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="5:5">
+    <row r="17" spans="5:8">
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8">
       <c r="E20" t="s">
         <v>3</v>
       </c>
